--- a/buscadorPormedida/files/LISTA DE PRECIOS MARKET.xlsx
+++ b/buscadorPormedida/files/LISTA DE PRECIOS MARKET.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matia\Documentos\SAMCOR\TodoEnUno-main\TodoEnUno-main\buscadorPormedida\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678B60C-3CA3-4674-9C45-12124C5D317D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8616D5AD-4598-4790-BDD6-EA58B9052624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{D0BC577A-BEC2-6844-85B2-8E34E00BA5F1}"/>
   </bookViews>
@@ -4620,7 +4620,13 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}" name="Tabla1" displayName="Tabla1" ref="A1:G361" totalsRowShown="0" headerRowDxfId="207" tableBorderDxfId="206">
-  <autoFilter ref="A1:G361" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}"/>
+  <autoFilter ref="A1:G361" xr:uid="{29416699-9AE4-4160-917C-2C5ACEF6DA60}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="265/65R17"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{EA449B72-83DE-46B5-B319-FA996C850BC5}" name="SKU"/>
     <tableColumn id="2" xr3:uid="{6A85AE4B-6CA9-44A6-A2EA-D3CB8E43F047}" name="MEDIDA" dataDxfId="205"/>
@@ -4953,8 +4959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD7E8A9-DA65-5E44-83F0-9CA8370198F0}">
   <dimension ref="A1:G361"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G330" sqref="G330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4991,7 +4997,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>5</v>
       </c>
@@ -5012,7 +5018,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5035,7 +5041,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -5054,7 +5060,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>613</v>
       </c>
@@ -5075,7 +5081,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
@@ -5098,7 +5104,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>30</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
@@ -5161,7 +5167,7 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
@@ -5182,7 +5188,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
@@ -5203,7 +5209,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -5224,7 +5230,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>612</v>
       </c>
@@ -5247,7 +5253,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>56</v>
       </c>
@@ -5268,7 +5274,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>61</v>
       </c>
@@ -5285,7 +5291,7 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>636</v>
       </c>
@@ -5302,7 +5308,7 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>34</v>
       </c>
@@ -5323,7 +5329,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>38</v>
       </c>
@@ -5344,7 +5350,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>681</v>
       </c>
@@ -5365,7 +5371,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>679</v>
       </c>
@@ -5386,7 +5392,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>614</v>
       </c>
@@ -5407,7 +5413,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>683</v>
       </c>
@@ -5428,7 +5434,7 @@
         <v>135000</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>685</v>
       </c>
@@ -5449,7 +5455,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>43</v>
       </c>
@@ -5470,7 +5476,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>45</v>
       </c>
@@ -5489,7 +5495,7 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>49</v>
       </c>
@@ -5506,7 +5512,7 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>686</v>
       </c>
@@ -5525,7 +5531,7 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>51</v>
       </c>
@@ -5544,7 +5550,7 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>690</v>
       </c>
@@ -5565,7 +5571,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>53</v>
       </c>
@@ -5584,7 +5590,7 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
         <v>99</v>
       </c>
@@ -5605,7 +5611,7 @@
         <v>220000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>63</v>
       </c>
@@ -5626,7 +5632,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>66</v>
       </c>
@@ -5647,7 +5653,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
         <v>69</v>
       </c>
@@ -5666,7 +5672,7 @@
       <c r="F34" s="5"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>71</v>
       </c>
@@ -5685,7 +5691,7 @@
       <c r="F35" s="5"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>73</v>
       </c>
@@ -5706,7 +5712,7 @@
         <v>165000</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
         <v>77</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
         <v>81</v>
       </c>
@@ -5746,7 +5752,7 @@
       <c r="F38" s="5"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>691</v>
       </c>
@@ -5765,7 +5771,7 @@
       <c r="F39" s="5"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7">
         <v>17565141000</v>
       </c>
@@ -5784,7 +5790,7 @@
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
         <v>82</v>
       </c>
@@ -5803,7 +5809,7 @@
       <c r="F41" s="5"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>615</v>
       </c>
@@ -5822,7 +5828,7 @@
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>86</v>
       </c>
@@ -5841,7 +5847,7 @@
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>694</v>
       </c>
@@ -5860,7 +5866,7 @@
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>88</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
         <v>93</v>
       </c>
@@ -5900,7 +5906,7 @@
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>616</v>
       </c>
@@ -5921,7 +5927,7 @@
         <v>155000</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
         <v>695</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>734</v>
       </c>
@@ -5965,7 +5971,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>89</v>
       </c>
@@ -5986,7 +5992,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>96</v>
       </c>
@@ -6007,7 +6013,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
         <v>132</v>
       </c>
@@ -6028,7 +6034,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>637</v>
       </c>
@@ -6049,7 +6055,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
         <v>102</v>
       </c>
@@ -6070,7 +6076,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
         <v>105</v>
       </c>
@@ -6089,7 +6095,7 @@
       <c r="F55" s="5"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>736</v>
       </c>
@@ -6110,7 +6116,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>106</v>
       </c>
@@ -6131,7 +6137,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
         <v>697</v>
       </c>
@@ -6150,7 +6156,7 @@
       <c r="F58" s="5"/>
       <c r="G58" s="5"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
         <v>108</v>
       </c>
@@ -6171,7 +6177,7 @@
         <v>160000</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
         <v>638</v>
       </c>
@@ -6190,7 +6196,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>699</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>738</v>
       </c>
@@ -6232,7 +6238,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>113</v>
       </c>
@@ -6253,7 +6259,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
         <v>116</v>
       </c>
@@ -6272,7 +6278,7 @@
       <c r="F64" s="5"/>
       <c r="G64" s="5"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>739</v>
       </c>
@@ -6293,7 +6299,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
         <v>118</v>
       </c>
@@ -6312,7 +6318,7 @@
       <c r="F66" s="5"/>
       <c r="G66" s="5"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
         <v>125</v>
       </c>
@@ -6333,7 +6339,7 @@
         <v>265000</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>701</v>
       </c>
@@ -6354,7 +6360,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>740</v>
       </c>
@@ -6375,7 +6381,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
         <v>122</v>
       </c>
@@ -6398,7 +6404,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="7"/>
       <c r="B71" s="4" t="s">
         <v>119</v>
@@ -6415,7 +6421,7 @@
       <c r="F71" s="5"/>
       <c r="G71" s="5"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
         <v>639</v>
       </c>
@@ -6434,7 +6440,7 @@
       <c r="F72" s="5"/>
       <c r="G72" s="5"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
         <v>640</v>
       </c>
@@ -6453,7 +6459,7 @@
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>647</v>
       </c>
@@ -6474,7 +6480,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
         <v>648</v>
       </c>
@@ -6495,7 +6501,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
         <v>618</v>
       </c>
@@ -6514,7 +6520,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
         <v>204</v>
       </c>
@@ -6535,7 +6541,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
         <v>135</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>139</v>
       </c>
@@ -6575,7 +6581,7 @@
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>141</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>143</v>
       </c>
@@ -6617,7 +6623,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
         <v>147</v>
       </c>
@@ -6636,7 +6642,7 @@
       <c r="F82" s="5"/>
       <c r="G82" s="5"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>702</v>
       </c>
@@ -6657,7 +6663,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>707</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>145</v>
       </c>
@@ -6701,7 +6707,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
         <v>705</v>
       </c>
@@ -6722,7 +6728,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
         <v>148</v>
       </c>
@@ -6743,7 +6749,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="7" t="s">
         <v>150</v>
       </c>
@@ -6764,7 +6770,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>741</v>
       </c>
@@ -6787,7 +6793,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>152</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
         <v>641</v>
       </c>
@@ -6829,7 +6835,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>645</v>
       </c>
@@ -6848,7 +6854,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>158</v>
       </c>
@@ -6869,7 +6875,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>742</v>
       </c>
@@ -6890,7 +6896,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>154</v>
       </c>
@@ -6911,7 +6917,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>157</v>
       </c>
@@ -6932,7 +6938,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="7" t="s">
         <v>156</v>
       </c>
@@ -6953,7 +6959,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>161</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>159</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>162</v>
       </c>
@@ -7016,7 +7022,7 @@
         <v>180000</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="7" t="s">
         <v>164</v>
       </c>
@@ -7035,7 +7041,7 @@
       <c r="F101" s="5"/>
       <c r="G101" s="5"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
         <v>167</v>
       </c>
@@ -7056,7 +7062,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="7" t="s">
         <v>166</v>
       </c>
@@ -7075,7 +7081,7 @@
       <c r="F103" s="5"/>
       <c r="G103" s="5"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>170</v>
       </c>
@@ -7096,7 +7102,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="7" t="s">
         <v>173</v>
       </c>
@@ -7117,7 +7123,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>179</v>
       </c>
@@ -7138,7 +7144,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>743</v>
       </c>
@@ -7159,7 +7165,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>175</v>
       </c>
@@ -7178,7 +7184,7 @@
       </c>
       <c r="G108" s="5"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="7" t="s">
         <v>617</v>
       </c>
@@ -7197,7 +7203,7 @@
       <c r="F109" s="5"/>
       <c r="G109" s="5"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="7" t="s">
         <v>710</v>
       </c>
@@ -7218,7 +7224,7 @@
         <v>295000</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="7" t="s">
         <v>709</v>
       </c>
@@ -7239,7 +7245,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>181</v>
       </c>
@@ -7262,7 +7268,7 @@
         <v>205000</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>182</v>
       </c>
@@ -7281,7 +7287,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>186</v>
       </c>
@@ -7302,7 +7308,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>188</v>
       </c>
@@ -7323,7 +7329,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>195</v>
       </c>
@@ -7344,7 +7350,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>708</v>
       </c>
@@ -7365,7 +7371,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>205</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
         <v>207</v>
       </c>
@@ -7407,7 +7413,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>209</v>
       </c>
@@ -7430,7 +7436,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>211</v>
       </c>
@@ -7451,7 +7457,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>213</v>
       </c>
@@ -7474,7 +7480,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
         <v>745</v>
       </c>
@@ -7495,7 +7501,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
         <v>215</v>
       </c>
@@ -7516,7 +7522,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>217</v>
       </c>
@@ -7537,7 +7543,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
         <v>232</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
         <v>226</v>
       </c>
@@ -7579,7 +7585,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>223</v>
       </c>
@@ -7598,7 +7604,7 @@
       <c r="F128" s="5"/>
       <c r="G128" s="5"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
         <v>711</v>
       </c>
@@ -7619,7 +7625,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
         <v>748</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>220</v>
       </c>
@@ -7661,7 +7667,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="7" t="s">
         <v>229</v>
       </c>
@@ -7682,7 +7688,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
         <v>750</v>
       </c>
@@ -7705,7 +7711,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
         <v>233</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
         <v>712</v>
       </c>
@@ -7747,7 +7753,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
         <v>620</v>
       </c>
@@ -7768,7 +7774,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
         <v>621</v>
       </c>
@@ -7791,7 +7797,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>238</v>
       </c>
@@ -7812,7 +7818,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>236</v>
       </c>
@@ -7831,7 +7837,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
         <v>240</v>
       </c>
@@ -7852,7 +7858,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>242</v>
       </c>
@@ -7871,7 +7877,7 @@
       </c>
       <c r="G141" s="3"/>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
         <v>649</v>
       </c>
@@ -7892,7 +7898,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
         <v>244</v>
       </c>
@@ -7911,7 +7917,7 @@
       </c>
       <c r="G143" s="5"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="7" t="s">
         <v>246</v>
       </c>
@@ -7932,7 +7938,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
         <v>249</v>
       </c>
@@ -7951,7 +7957,7 @@
       </c>
       <c r="G145" s="3"/>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="7" t="s">
         <v>251</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="7" t="s">
         <v>247</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>258</v>
       </c>
@@ -8014,7 +8020,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>253</v>
       </c>
@@ -8035,7 +8041,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>257</v>
       </c>
@@ -8056,7 +8062,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>260</v>
       </c>
@@ -8075,7 +8081,7 @@
       </c>
       <c r="G151" s="5"/>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>264</v>
       </c>
@@ -8094,7 +8100,7 @@
       <c r="F152" s="5"/>
       <c r="G152" s="3"/>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>266</v>
       </c>
@@ -8115,7 +8121,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>267</v>
       </c>
@@ -8136,7 +8142,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>269</v>
       </c>
@@ -8155,7 +8161,7 @@
       <c r="F155" s="5"/>
       <c r="G155" s="5"/>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>271</v>
       </c>
@@ -8176,7 +8182,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>273</v>
       </c>
@@ -8197,7 +8203,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
         <v>714</v>
       </c>
@@ -8218,7 +8224,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
         <v>275</v>
       </c>
@@ -8239,7 +8245,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
         <v>277</v>
       </c>
@@ -8260,7 +8266,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>280</v>
       </c>
@@ -8279,7 +8285,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
         <v>278</v>
       </c>
@@ -8300,7 +8306,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
         <v>283</v>
       </c>
@@ -8323,7 +8329,7 @@
         <v>235000</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
         <v>716</v>
       </c>
@@ -8344,7 +8350,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
         <v>286</v>
       </c>
@@ -8363,7 +8369,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
         <v>752</v>
       </c>
@@ -8384,7 +8390,7 @@
         <v>670000</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
         <v>291</v>
       </c>
@@ -8405,7 +8411,7 @@
         <v>275000</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>288</v>
       </c>
@@ -8426,7 +8432,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
         <v>293</v>
       </c>
@@ -8447,7 +8453,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>296</v>
       </c>
@@ -8468,7 +8474,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>300</v>
       </c>
@@ -8489,7 +8495,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>297</v>
       </c>
@@ -8510,7 +8516,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>622</v>
       </c>
@@ -8531,7 +8537,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>307</v>
       </c>
@@ -8552,7 +8558,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>306</v>
       </c>
@@ -8573,7 +8579,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>303</v>
       </c>
@@ -8594,7 +8600,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>309</v>
       </c>
@@ -8615,7 +8621,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>754</v>
       </c>
@@ -8636,7 +8642,7 @@
         <v>680000</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>312</v>
       </c>
@@ -8657,7 +8663,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>316</v>
       </c>
@@ -8680,7 +8686,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>314</v>
       </c>
@@ -8701,7 +8707,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>623</v>
       </c>
@@ -8722,7 +8728,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
         <v>756</v>
       </c>
@@ -8743,7 +8749,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
         <v>323</v>
       </c>
@@ -8762,7 +8768,7 @@
       <c r="F184" s="5"/>
       <c r="G184" s="3"/>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>624</v>
       </c>
@@ -8783,7 +8789,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>320</v>
       </c>
@@ -8804,7 +8810,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>318</v>
       </c>
@@ -8825,7 +8831,7 @@
         <v>240000</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>625</v>
       </c>
@@ -8846,7 +8852,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>324</v>
       </c>
@@ -8867,7 +8873,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>333</v>
       </c>
@@ -8886,7 +8892,7 @@
       <c r="F190" s="5"/>
       <c r="G190" s="5"/>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="8" t="s">
         <v>330</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>328</v>
       </c>
@@ -8930,7 +8936,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>334</v>
       </c>
@@ -8951,7 +8957,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>717</v>
       </c>
@@ -8972,7 +8978,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>337</v>
       </c>
@@ -8993,7 +8999,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>340</v>
       </c>
@@ -9014,7 +9020,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
         <v>343</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="11" t="s">
         <v>344</v>
       </c>
@@ -9056,7 +9062,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
         <v>349</v>
       </c>
@@ -9077,7 +9083,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
         <v>351</v>
       </c>
@@ -9098,7 +9104,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
         <v>757</v>
       </c>
@@ -9119,7 +9125,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="7" t="s">
         <v>719</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
         <v>363</v>
       </c>
@@ -9161,7 +9167,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>359</v>
       </c>
@@ -9182,7 +9188,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>361</v>
       </c>
@@ -9203,7 +9209,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>354</v>
       </c>
@@ -9224,7 +9230,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>357</v>
       </c>
@@ -9245,7 +9251,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>370</v>
       </c>
@@ -9266,7 +9272,7 @@
         <v>230000</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>373</v>
       </c>
@@ -9287,7 +9293,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>366</v>
       </c>
@@ -9308,7 +9314,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
         <v>759</v>
       </c>
@@ -9329,7 +9335,7 @@
         <v>780000</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="9" t="s">
         <v>762</v>
       </c>
@@ -9350,7 +9356,7 @@
         <v>920000</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>368</v>
       </c>
@@ -9371,7 +9377,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>374</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="7" t="s">
         <v>378</v>
       </c>
@@ -9415,7 +9421,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="7" t="s">
         <v>376</v>
       </c>
@@ -9436,7 +9442,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
         <v>650</v>
       </c>
@@ -9457,7 +9463,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="9" t="s">
         <v>763</v>
       </c>
@@ -9478,7 +9484,7 @@
         <v>640000</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
         <v>722</v>
       </c>
@@ -9499,7 +9505,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
         <v>387</v>
       </c>
@@ -9520,7 +9526,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
         <v>380</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
         <v>386</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
         <v>382</v>
       </c>
@@ -9581,7 +9587,7 @@
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
         <v>392</v>
       </c>
@@ -9600,7 +9606,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>390</v>
       </c>
@@ -9619,7 +9625,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="7" t="s">
         <v>723</v>
       </c>
@@ -9640,7 +9646,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="7" t="s">
         <v>652</v>
       </c>
@@ -9663,7 +9669,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
         <v>765</v>
       </c>
@@ -9684,7 +9690,7 @@
         <v>980000</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="7" t="s">
         <v>397</v>
       </c>
@@ -9705,7 +9711,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
         <v>394</v>
       </c>
@@ -9726,7 +9732,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
         <v>398</v>
       </c>
@@ -9747,7 +9753,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>403</v>
       </c>
@@ -9768,7 +9774,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="7" t="s">
         <v>400</v>
       </c>
@@ -9789,7 +9795,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
         <v>407</v>
       </c>
@@ -9810,7 +9816,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
         <v>405</v>
       </c>
@@ -9833,7 +9839,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
         <v>766</v>
       </c>
@@ -9854,7 +9860,7 @@
         <v>730000</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
         <v>409</v>
       </c>
@@ -9873,7 +9879,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
         <v>412</v>
       </c>
@@ -9894,7 +9900,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="10" t="s">
         <v>627</v>
       </c>
@@ -9915,7 +9921,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
         <v>414</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="7" t="s">
         <v>416</v>
       </c>
@@ -9957,7 +9963,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
         <v>653</v>
       </c>
@@ -9976,7 +9982,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>422</v>
       </c>
@@ -9995,7 +10001,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
         <v>768</v>
       </c>
@@ -10014,7 +10020,7 @@
       <c r="F244" s="3"/>
       <c r="G244" s="3"/>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="7" t="s">
         <v>418</v>
       </c>
@@ -10035,7 +10041,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="7" t="s">
         <v>420</v>
       </c>
@@ -10056,7 +10062,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
         <v>654</v>
       </c>
@@ -10079,7 +10085,7 @@
         <v>360000</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>655</v>
       </c>
@@ -10100,7 +10106,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>427</v>
       </c>
@@ -10121,7 +10127,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
         <v>424</v>
       </c>
@@ -10142,7 +10148,7 @@
         <v>290000</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
         <v>429</v>
       </c>
@@ -10163,7 +10169,7 @@
         <v>260000</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
         <v>431</v>
       </c>
@@ -10184,7 +10190,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
         <v>433</v>
       </c>
@@ -10203,7 +10209,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
         <v>658</v>
       </c>
@@ -10224,7 +10230,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
         <v>659</v>
       </c>
@@ -10245,7 +10251,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
         <v>660</v>
       </c>
@@ -10268,7 +10274,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="7" t="s">
         <v>437</v>
       </c>
@@ -10291,7 +10297,7 @@
         <v>270000</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
         <v>629</v>
       </c>
@@ -10314,7 +10320,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
         <v>439</v>
       </c>
@@ -10335,7 +10341,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
         <v>662</v>
       </c>
@@ -10356,7 +10362,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="7" t="s">
         <v>441</v>
       </c>
@@ -10377,7 +10383,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="7" t="s">
         <v>664</v>
       </c>
@@ -10398,7 +10404,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="7" t="s">
         <v>443</v>
       </c>
@@ -10419,7 +10425,7 @@
         <v>320000</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
         <v>445</v>
       </c>
@@ -10438,7 +10444,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
         <v>447</v>
       </c>
@@ -10459,7 +10465,7 @@
         <v>420000</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
         <v>450</v>
       </c>
@@ -10478,7 +10484,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
         <v>448</v>
       </c>
@@ -10499,7 +10505,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="7" t="s">
         <v>454</v>
       </c>
@@ -10520,7 +10526,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="7" t="s">
         <v>452</v>
       </c>
@@ -10541,7 +10547,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="7" t="s">
         <v>456</v>
       </c>
@@ -10560,7 +10566,7 @@
       <c r="F270" s="5"/>
       <c r="G270" s="5"/>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
         <v>461</v>
       </c>
@@ -10579,7 +10585,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
         <v>460</v>
       </c>
@@ -10600,7 +10606,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="7" t="s">
         <v>458</v>
       </c>
@@ -10621,7 +10627,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="7" t="s">
         <v>462</v>
       </c>
@@ -10642,7 +10648,7 @@
         <v>340000</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
         <v>467</v>
       </c>
@@ -10661,7 +10667,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
         <v>725</v>
       </c>
@@ -10682,7 +10688,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
         <v>770</v>
       </c>
@@ -10703,7 +10709,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
         <v>466</v>
       </c>
@@ -10722,7 +10728,7 @@
       <c r="F278" s="5"/>
       <c r="G278" s="3"/>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
         <v>464</v>
       </c>
@@ -10743,7 +10749,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
         <v>727</v>
       </c>
@@ -10764,7 +10770,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
         <v>470</v>
       </c>
@@ -10785,7 +10791,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
         <v>666</v>
       </c>
@@ -10806,7 +10812,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="7" t="s">
         <v>468</v>
       </c>
@@ -10825,7 +10831,7 @@
       <c r="F283" s="5"/>
       <c r="G283" s="3"/>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="7" t="s">
         <v>472</v>
       </c>
@@ -10846,7 +10852,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="7" t="s">
         <v>473</v>
       </c>
@@ -10867,7 +10873,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
         <v>729</v>
       </c>
@@ -10890,7 +10896,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="7" t="s">
         <v>475</v>
       </c>
@@ -10909,7 +10915,7 @@
       <c r="F287" s="5"/>
       <c r="G287" s="3"/>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="7" t="s">
         <v>732</v>
       </c>
@@ -10930,7 +10936,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="7" t="s">
         <v>631</v>
       </c>
@@ -10953,7 +10959,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
         <v>476</v>
       </c>
@@ -10974,7 +10980,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
         <v>478</v>
       </c>
@@ -10995,7 +11001,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
         <v>480</v>
       </c>
@@ -11016,7 +11022,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
         <v>667</v>
       </c>
@@ -11037,7 +11043,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="7" t="s">
         <v>482</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>330000</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="7" t="s">
         <v>484</v>
       </c>
@@ -11081,7 +11087,7 @@
         <v>520000</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="7" t="s">
         <v>486</v>
       </c>
@@ -11102,7 +11108,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
         <v>488</v>
       </c>
@@ -11121,7 +11127,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
         <v>490</v>
       </c>
@@ -11140,7 +11146,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
         <v>669</v>
       </c>
@@ -11161,7 +11167,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
         <v>496</v>
       </c>
@@ -11182,7 +11188,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
         <v>497</v>
       </c>
@@ -11203,7 +11209,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
         <v>498</v>
       </c>
@@ -11224,7 +11230,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
         <v>493</v>
       </c>
@@ -11243,7 +11249,7 @@
       </c>
       <c r="G303" s="3"/>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
         <v>499</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
         <v>502</v>
       </c>
@@ -11285,7 +11291,7 @@
         <v>390000</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
         <v>503</v>
       </c>
@@ -11306,7 +11312,7 @@
         <v>280000</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
         <v>512</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
         <v>511</v>
       </c>
@@ -11346,7 +11352,7 @@
       </c>
       <c r="G308" s="5"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
         <v>509</v>
       </c>
@@ -11367,7 +11373,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
         <v>507</v>
       </c>
@@ -11386,7 +11392,7 @@
       <c r="F310" s="5"/>
       <c r="G310" s="3"/>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="8" t="s">
         <v>510</v>
       </c>
@@ -11409,7 +11415,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
         <v>510</v>
       </c>
@@ -11430,7 +11436,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
         <v>516</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
         <v>514</v>
       </c>
@@ -11470,7 +11476,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
         <v>519</v>
       </c>
@@ -11489,7 +11495,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
         <v>517</v>
       </c>
@@ -11510,7 +11516,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
         <v>520</v>
       </c>
@@ -11531,7 +11537,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
         <v>522</v>
       </c>
@@ -11550,7 +11556,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
         <v>524</v>
       </c>
@@ -11571,7 +11577,7 @@
         <v>380000</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
         <v>526</v>
       </c>
@@ -11592,7 +11598,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
         <v>529</v>
       </c>
@@ -11613,7 +11619,7 @@
         <v>410000</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
         <v>671</v>
       </c>
@@ -11634,7 +11640,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
         <v>673</v>
       </c>
@@ -11655,7 +11661,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
         <v>530</v>
       </c>
@@ -11674,7 +11680,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
         <v>538</v>
       </c>
@@ -11695,7 +11701,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
         <v>537</v>
       </c>
@@ -11716,7 +11722,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
         <v>533</v>
       </c>
@@ -11737,7 +11743,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
         <v>535</v>
       </c>
@@ -11797,7 +11803,7 @@
       </c>
       <c r="F330" s="5"/>
       <c r="G330" s="5">
-        <v>220000</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
@@ -11821,7 +11827,7 @@
         <v>470000</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
         <v>544</v>
       </c>
@@ -11844,7 +11850,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
         <v>546</v>
       </c>
@@ -11867,7 +11873,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="7" t="s">
         <v>549</v>
       </c>
@@ -11888,7 +11894,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="7" t="s">
         <v>550</v>
       </c>
@@ -11909,7 +11915,7 @@
         <v>540000</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="7" t="s">
         <v>553</v>
       </c>
@@ -11930,7 +11936,7 @@
         <v>430000</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
         <v>552</v>
       </c>
@@ -11951,7 +11957,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="7" t="s">
         <v>555</v>
       </c>
@@ -11972,7 +11978,7 @@
         <v>480000</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="7" t="s">
         <v>559</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>460000</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
         <v>562</v>
       </c>
@@ -12014,7 +12020,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
         <v>563</v>
       </c>
@@ -12035,7 +12041,7 @@
         <v>580000</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
         <v>565</v>
       </c>
@@ -12054,7 +12060,7 @@
       <c r="F342" s="5"/>
       <c r="G342" s="5"/>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
         <v>566</v>
       </c>
@@ -12075,7 +12081,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
         <v>568</v>
       </c>
@@ -12096,7 +12102,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
         <v>570</v>
       </c>
@@ -12117,7 +12123,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
         <v>557</v>
       </c>
@@ -12136,7 +12142,7 @@
       </c>
       <c r="G346" s="3"/>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
         <v>572</v>
       </c>
@@ -12157,7 +12163,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
         <v>574</v>
       </c>
@@ -12178,7 +12184,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
         <v>576</v>
       </c>
@@ -12197,7 +12203,7 @@
       <c r="F349" s="5"/>
       <c r="G349" s="5"/>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
         <v>675</v>
       </c>
@@ -12214,7 +12220,7 @@
       <c r="F350" s="5"/>
       <c r="G350" s="5"/>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
         <v>584</v>
       </c>
@@ -12237,7 +12243,7 @@
         <v>440000</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
         <v>580</v>
       </c>
@@ -12256,7 +12262,7 @@
       <c r="F352" s="5"/>
       <c r="G352" s="3"/>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
         <v>582</v>
       </c>
@@ -12279,7 +12285,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
         <v>586</v>
       </c>
@@ -12300,7 +12306,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
         <v>590</v>
       </c>
@@ -12321,7 +12327,7 @@
         <v>190000</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
         <v>593</v>
       </c>
@@ -12342,7 +12348,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="7" t="s">
         <v>596</v>
       </c>
@@ -12363,7 +12369,7 @@
         <v>215000</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
         <v>597</v>
       </c>
@@ -12384,7 +12390,7 @@
         <v>310000</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
         <v>600</v>
       </c>
@@ -12403,7 +12409,7 @@
       <c r="F359" s="5"/>
       <c r="G359" s="3"/>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="7" t="s">
         <v>677</v>
       </c>
@@ -12422,7 +12428,7 @@
       <c r="F360" s="5"/>
       <c r="G360" s="3"/>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
         <v>604</v>
       </c>
